--- a/Result/1.xlsx
+++ b/Result/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c49e4f0b6c3fc49/WorkSpace/SAT_learn/Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_EF922ED5D7DA76BE891C87ED72E8486760B4AA41" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{665EF22C-6326-4003-80FA-21296DA79CE1}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_EF922ED5D7DA76BE891C87ED72E8486760B4AA41" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{935D52D9-7BC2-4154-9530-EF637C5BA575}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,7 +542,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -967,363 +967,363 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B16">
-        <v>1336</v>
+        <v>1663</v>
       </c>
       <c r="C16">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>10</v>
       </c>
       <c r="F16">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="G16">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H16">
-        <v>176</v>
+        <v>817</v>
       </c>
       <c r="I16">
-        <v>3521</v>
+        <v>8885</v>
       </c>
       <c r="J16">
-        <v>1136</v>
+        <v>1697</v>
       </c>
       <c r="K16">
-        <v>6374</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B17">
-        <v>52517015</v>
+        <v>5800196</v>
       </c>
       <c r="C17">
-        <v>6558</v>
+        <v>45984</v>
       </c>
       <c r="D17">
-        <v>2137137</v>
+        <v>159784</v>
       </c>
       <c r="E17">
-        <v>1054</v>
+        <v>2164</v>
       </c>
       <c r="F17">
-        <v>4600774</v>
+        <v>1167181</v>
       </c>
       <c r="G17">
-        <v>11094547</v>
+        <v>8489643</v>
       </c>
       <c r="H17">
-        <v>11335009</v>
+        <v>56242595</v>
       </c>
       <c r="I17">
-        <v>361818659</v>
+        <v>1111472009</v>
       </c>
       <c r="J17">
-        <v>12903448</v>
+        <v>799371954</v>
       </c>
       <c r="K17">
-        <v>456414625</v>
+        <v>1982751510</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B18">
-        <v>1591</v>
+        <v>1663</v>
       </c>
       <c r="C18">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>10</v>
       </c>
       <c r="F18">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="G18">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H18">
-        <v>517</v>
+        <v>817</v>
       </c>
       <c r="I18">
-        <v>6795</v>
+        <v>8885</v>
       </c>
       <c r="J18">
-        <v>1837</v>
+        <v>1697</v>
       </c>
       <c r="K18">
-        <v>10958</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B19">
-        <v>1569901</v>
+        <v>5800196</v>
       </c>
       <c r="C19">
-        <v>11423</v>
+        <v>45984</v>
       </c>
       <c r="D19">
-        <v>5280313</v>
+        <v>159784</v>
       </c>
       <c r="E19">
-        <v>561</v>
+        <v>2164</v>
       </c>
       <c r="F19">
-        <v>558231</v>
+        <v>1167181</v>
       </c>
       <c r="G19">
-        <v>2301080</v>
+        <v>8489643</v>
       </c>
       <c r="H19">
-        <v>22589233</v>
+        <v>56242595</v>
       </c>
       <c r="I19">
-        <v>398786186</v>
+        <v>1111472009</v>
       </c>
       <c r="J19">
-        <v>52854643</v>
+        <v>799371954</v>
       </c>
       <c r="K19">
-        <v>483952064</v>
+        <v>1982751510</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>1662</v>
+        <v>1336</v>
       </c>
       <c r="C20">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="G20">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H20">
-        <v>296</v>
+        <v>176</v>
       </c>
       <c r="I20">
-        <v>3278</v>
+        <v>3521</v>
       </c>
       <c r="J20">
-        <v>71</v>
+        <v>1136</v>
       </c>
       <c r="K20">
-        <v>5472</v>
+        <v>6354</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>3420674</v>
+        <v>52517015</v>
       </c>
       <c r="C21">
-        <v>118669</v>
+        <v>6558</v>
       </c>
       <c r="D21">
-        <v>79620</v>
+        <v>124902</v>
       </c>
       <c r="E21">
-        <v>6401</v>
+        <v>1054</v>
       </c>
       <c r="F21">
-        <v>13624719</v>
+        <v>4600774</v>
       </c>
       <c r="G21">
-        <v>4021083</v>
+        <v>6242933</v>
       </c>
       <c r="H21">
-        <v>28518205</v>
+        <v>11335009</v>
       </c>
       <c r="I21">
-        <v>869952905</v>
+        <v>361818659</v>
       </c>
       <c r="J21">
-        <v>14586830</v>
+        <v>12903448</v>
       </c>
       <c r="K21">
-        <v>934333920</v>
+        <v>449550352</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>1642</v>
+        <v>1591</v>
       </c>
       <c r="C22">
         <v>79</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>10</v>
       </c>
       <c r="F22">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="G22">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H22">
-        <v>711</v>
+        <v>515</v>
       </c>
       <c r="I22">
-        <v>7672</v>
+        <v>6787</v>
       </c>
       <c r="J22">
-        <v>1781</v>
+        <v>1837</v>
       </c>
       <c r="K22">
-        <v>12061</v>
+        <v>10936</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>58015624</v>
+        <v>1569901</v>
       </c>
       <c r="C23">
-        <v>6031</v>
+        <v>11423</v>
       </c>
       <c r="D23">
-        <v>1932698</v>
+        <v>604420</v>
       </c>
       <c r="E23">
-        <v>664</v>
+        <v>561</v>
       </c>
       <c r="F23">
-        <v>3221496</v>
+        <v>558231</v>
       </c>
       <c r="G23">
-        <v>6562517</v>
+        <v>2301080</v>
       </c>
       <c r="H23">
-        <v>63349411</v>
+        <v>22574087</v>
       </c>
       <c r="I23">
-        <v>1128448723</v>
+        <v>396089582</v>
       </c>
       <c r="J23">
-        <v>92202799</v>
+        <v>52854643</v>
       </c>
       <c r="K23">
-        <v>1353740547</v>
+        <v>476563928</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C24">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="G24">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H24">
-        <v>817</v>
+        <v>296</v>
       </c>
       <c r="I24">
-        <v>8885</v>
+        <v>3278</v>
       </c>
       <c r="J24">
-        <v>1697</v>
+        <v>71</v>
       </c>
       <c r="K24">
-        <v>13346</v>
+        <v>5464</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>5800196</v>
+        <v>3420674</v>
       </c>
       <c r="C25">
-        <v>45984</v>
+        <v>118669</v>
       </c>
       <c r="D25">
-        <v>159784</v>
+        <v>79620</v>
       </c>
       <c r="E25">
-        <v>2164</v>
+        <v>6401</v>
       </c>
       <c r="F25">
-        <v>1167181</v>
+        <v>13624719</v>
       </c>
       <c r="G25">
-        <v>8489643</v>
+        <v>4021083</v>
       </c>
       <c r="H25">
-        <v>56242595</v>
+        <v>28518205</v>
       </c>
       <c r="I25">
-        <v>1111472009</v>
+        <v>869952905</v>
       </c>
       <c r="J25">
-        <v>799371954</v>
+        <v>14586830</v>
       </c>
       <c r="K25">
-        <v>1982751510</v>
+        <v>934329106</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>1663</v>
+        <v>1642</v>
       </c>
       <c r="C26">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26">
         <v>7</v>
@@ -1332,57 +1332,57 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="G26">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H26">
-        <v>817</v>
+        <v>710</v>
       </c>
       <c r="I26">
-        <v>8885</v>
+        <v>7669</v>
       </c>
       <c r="J26">
-        <v>1697</v>
+        <v>1781</v>
       </c>
       <c r="K26">
-        <v>13346</v>
+        <v>12038</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>5800196</v>
+        <v>58015624</v>
       </c>
       <c r="C27">
-        <v>45984</v>
+        <v>6031</v>
       </c>
       <c r="D27">
-        <v>159784</v>
+        <v>29735</v>
       </c>
       <c r="E27">
-        <v>2164</v>
+        <v>664</v>
       </c>
       <c r="F27">
-        <v>1167181</v>
+        <v>3221496</v>
       </c>
       <c r="G27">
-        <v>8489643</v>
+        <v>6562517</v>
       </c>
       <c r="H27">
-        <v>56242595</v>
+        <v>63348990</v>
       </c>
       <c r="I27">
-        <v>1111472009</v>
+        <v>1125062242</v>
       </c>
       <c r="J27">
-        <v>799371954</v>
+        <v>92202799</v>
       </c>
       <c r="K27">
-        <v>1982751510</v>
+        <v>1348450098</v>
       </c>
     </row>
   </sheetData>

--- a/Result/1.xlsx
+++ b/Result/1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c49e4f0b6c3fc49/WorkSpace/SAT_learn/Result/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\hrcarryu\SAT-learn\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_EF922ED5D7DA76BE891C87ED72E8486760B4AA41" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{935D52D9-7BC2-4154-9530-EF637C5BA575}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EBF588-20E7-4023-8D82-50FD6CDB7FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -196,11 +196,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -542,25 +543,25 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.375" customWidth="1"/>
+    <col min="1" max="1" width="51.33203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="25.375" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="18.25" customWidth="1"/>
-    <col min="8" max="8" width="26.125" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
-    <col min="10" max="10" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" customWidth="1"/>
+    <col min="8" max="8" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -630,7 +631,7 @@
         <v>13484</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -665,7 +666,7 @@
         <v>1644373639</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -700,7 +701,7 @@
         <v>13861</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -735,7 +736,7 @@
         <v>1158291111</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -770,7 +771,7 @@
         <v>7214</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -805,7 +806,7 @@
         <v>690239878</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -840,7 +841,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -875,7 +876,7 @@
         <v>103199</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -910,7 +911,7 @@
         <v>12866</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -945,27 +946,87 @@
         <v>1325483780</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B12" s="2">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B13" s="2">
+        <v>18544</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6408</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10444</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>35396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1000,7 +1061,7 @@
         <v>13346</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1035,7 +1096,7 @@
         <v>1982751510</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1070,7 +1131,7 @@
         <v>13346</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1105,7 +1166,7 @@
         <v>1982751510</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1140,7 +1201,7 @@
         <v>6354</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1175,7 +1236,7 @@
         <v>449550352</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1210,7 +1271,7 @@
         <v>10936</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1245,7 +1306,7 @@
         <v>476563928</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1280,7 +1341,7 @@
         <v>5464</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1315,7 +1376,7 @@
         <v>934329106</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1350,7 +1411,7 @@
         <v>12038</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
